--- a/other/xlsx/teacher_info.teacher.xlsx
+++ b/other/xlsx/teacher_info.teacher.xlsx
@@ -1,375 +1,320 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
-  <si>
-    <t>тг айди</t>
-  </si>
-  <si>
-    <t>фио препода</t>
-  </si>
-  <si>
-    <t>должность</t>
-  </si>
-  <si>
-    <t>кафедра</t>
-  </si>
-  <si>
-    <t>адрес</t>
-  </si>
-  <si>
-    <t>рабочая почта</t>
-  </si>
-  <si>
-    <t>Иванов Иван Иванович</t>
-  </si>
-  <si>
-    <t>доцент</t>
-  </si>
-  <si>
-    <t>Кафедра математики</t>
-  </si>
-  <si>
-    <t>ул. Ленина, 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>ivanov@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Петрова Анна Сергеевна</t>
-  </si>
-  <si>
-    <t>старший преподаватель</t>
-  </si>
-  <si>
-    <t>Кафедра физики</t>
-  </si>
-  <si>
-    <t>пр. Мира, 10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>petrova@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Сидоров Алексей Викторович</t>
-  </si>
-  <si>
-    <t>профессор</t>
-  </si>
-  <si>
-    <t>Кафедра информатики</t>
-  </si>
-  <si>
-    <t>ул. Пушкина, 5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>sidorov@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Кузнецова Мария Павловна</t>
-  </si>
-  <si>
-    <t>Кафедра химии</t>
-  </si>
-  <si>
-    <t>ул. Чехова, 12</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>kuznetsova@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Смирнов Дмитрий Александрович</t>
-  </si>
-  <si>
-    <t>Кафедра биологии</t>
-  </si>
-  <si>
-    <t>ул. Горького, 3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>smirnov@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Федорова Ольга Николаевна</t>
-  </si>
-  <si>
-    <t>Кафедра истории</t>
-  </si>
-  <si>
-    <t>ул. Советская, 7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>fedorova@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Васильев Сергей Владимирович</t>
-  </si>
-  <si>
-    <t>Кафедра экономики</t>
-  </si>
-  <si>
-    <t>ул. Тимирязева, 15</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>vasilyev@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Николаева Екатерина Андреевна</t>
-  </si>
-  <si>
-    <t>Кафедра психологии</t>
-  </si>
-  <si>
-    <t>ул. Лермонтова, 20</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>nikolaeva@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Орлов Игорь Васильевич</t>
-  </si>
-  <si>
-    <t>Кафедра социологии</t>
-  </si>
-  <si>
-    <t>ул. Крылатая, 8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>orlov@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Григорьев Павел Сергеевич</t>
-  </si>
-  <si>
-    <t>Кафедра философии</t>
-  </si>
-  <si>
-    <t>ул. Садовая, 4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>grigoryev@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Лебедева Светлана Викторовна</t>
-  </si>
-  <si>
-    <t>Кафедра журналистики</t>
-  </si>
-  <si>
-    <t>ул. Набережная, 6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>lebedewa@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Михайлов Андрей Юрьевич</t>
-  </si>
-  <si>
-    <t>Кафедра права</t>
-  </si>
-  <si>
-    <t>ул. Костякова, 9</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>mikhailov@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Соколова Наталья Игоревна</t>
-  </si>
-  <si>
-    <t>Кафедра лингвистики</t>
-  </si>
-  <si>
-    <t>ул. Фрунзе, 11</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>sokolova@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Романов Виктор Петрович</t>
-  </si>
-  <si>
-    <t>Кафедра географии</t>
-  </si>
-  <si>
-    <t>ул. Кузнецкая, 14</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>romanov@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Тихонов Артем Сергеевич</t>
-  </si>
-  <si>
-    <t>ул. Лесная, 2</t>
-  </si>
-  <si>
-    <t>tikhonov@mail.ru</t>
-  </si>
-  <si>
-    <t>Коваленко Ирина Владимировна</t>
-  </si>
-  <si>
-    <t>ул. Солнечная, 18</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>kovalenko@mail.ru</t>
-    </r>
-  </si>
-  <si>
-    <t>Баранов Алексей Николаевич</t>
-  </si>
-  <si>
-    <t>ул. Зелёная, 22</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="DDG_ProximaNova, DDG_ProximaNova_UI_0, DDG_ProximaNova_UI_1, DDG_ProximaNova_UI_2, DDG_ProximaNova_UI_3, DDG_ProximaNova_UI_4, DDG_ProximaNova_UI_5, DDG_ProximaNova_UI_6, &quot;Proxima Nova&quot;, &quot;Helvetica Neue&quot;, Helvetica, &quot;Segoe UI&quot;, &quot;Nimbus Sans L&quot;, &quot;Liberation Sans&quot;, &quot;Open Sans&quot;, FreeSans, Arial, &quot;sans-serif&quot;"/>
-        <color rgb="FF000000"/>
-        <u/>
-      </rPr>
-      <t>baranov@mail.ru</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+  <si>
+    <t xml:space="preserve">тг айди</t>
+  </si>
+  <si>
+    <t xml:space="preserve">фио препода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">должность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кафедра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">адрес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рабочая почта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авсиевич Владимирв Викторович </t>
+  </si>
+  <si>
+    <t xml:space="preserve">доцент ПИШ, к.т.н.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра математики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Ленина, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v.v.avsievich@samsmu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Болвашенков  Иван Викторович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ассистент ПИШ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра физики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пр. Мира, 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i.v.bolvashenkov@samsmu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Буканова Юлия Владимировна </t>
+  </si>
+  <si>
+    <t xml:space="preserve">руководитель образовательной программы ПИШ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра информатики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Пушкина, 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yu.v.bukanova@samsmu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гуленко Ольга Николаевна </t>
+  </si>
+  <si>
+    <t xml:space="preserve">доцент ПИШ, к.б.н., доцент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра химии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Чехова, 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o.n.gulenko@samsmu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гущин Андрей Викторович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра биологии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Горького, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.v.guschin@samsmu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дрождин Владимир Викторович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">доцент ПИШ, к.т.н., доцент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра истории</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Советская, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v.v.drozhdin@samsmu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кузьмин Андрей Викторович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">профессор ПИШ, д.т.н., доцент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра экономики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Тимирязева, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an.v.kuzmin@samsmu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мостовой Илья Леонидович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра психологии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Лермонтова, 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i.l.mostovoy@samsmu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Панюкова Екатерина Владимировна </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра социологии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Крылатая, 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.v.panyukova@samsmu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Серяпин Константин Михайлович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра философии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Садовая, 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k.m.seryapin@samsmu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Терехин Михаил Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра журналистики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Набережная, 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m.a.terekhin@samsmu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Михайлов Андрей Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">профессор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра права</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Костякова, 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mikhailov@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соколова Наталья Игоревна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">доцент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра лингвистики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Фрунзе, 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sokolova@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Романов Виктор Петрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">старший преподаватель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафедра географии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Кузнецкая, 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">romanov@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тихонов Артем Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Лесная, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tikhonov@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коваленко Ирина Владимировна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Солнечная, 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kovalenko@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баранов Алексей Николаевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Зелёная, 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baranov@mail.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -377,38 +322,70 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,94 +396,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -514,33 +487,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -553,13 +517,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -569,15 +527,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -585,7 +541,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -593,11 +548,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -606,16 +561,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,9 +593,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.23456789E8</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>123456789</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -655,9 +613,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>9.87654321E8</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>987654321</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -695,9 +653,9 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>2.3456789E8</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>234567890</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -735,24 +693,24 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>3.45678901E8</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>345678901</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -775,24 +733,24 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>4.56789012E8</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>456789012</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -815,24 +773,24 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>5.67890123E8</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>567890123</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -855,24 +813,24 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>6.78901234E8</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>678901234</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -895,24 +853,24 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>7.89012345E8</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>789012345</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -935,24 +893,24 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>8.90123456E8</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>890123456</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -975,24 +933,24 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>9.01234567E8</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>901234567</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1015,24 +973,24 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>1.12233445E8</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>112233445</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1055,24 +1013,24 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>2.23344556E8</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>223344556</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1095,24 +1053,24 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>3.34455667E8</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>334455667</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1135,24 +1093,24 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>4.45566778E8</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>445566778</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1175,24 +1133,24 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>5.56677889E8</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>556677889</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1215,24 +1173,24 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>6.6778899E8</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>667788990</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1255,24 +1213,24 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>7.78899001E8</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>778899001</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1295,2971 +1253,2966 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F524" s="2"/>
     </row>
-    <row r="525">
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F525" s="2"/>
     </row>
-    <row r="526">
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F526" s="2"/>
     </row>
-    <row r="527">
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F527" s="2"/>
     </row>
-    <row r="528">
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F528" s="2"/>
     </row>
-    <row r="529">
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F529" s="2"/>
     </row>
-    <row r="530">
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F530" s="2"/>
     </row>
-    <row r="531">
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F531" s="2"/>
     </row>
-    <row r="532">
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F532" s="2"/>
     </row>
-    <row r="533">
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F533" s="2"/>
     </row>
-    <row r="534">
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F534" s="2"/>
     </row>
-    <row r="535">
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F535" s="2"/>
     </row>
-    <row r="536">
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F536" s="2"/>
     </row>
-    <row r="537">
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F537" s="2"/>
     </row>
-    <row r="538">
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F538" s="2"/>
     </row>
-    <row r="539">
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F539" s="2"/>
     </row>
-    <row r="540">
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F540" s="2"/>
     </row>
-    <row r="541">
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F541" s="2"/>
     </row>
-    <row r="542">
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F542" s="2"/>
     </row>
-    <row r="543">
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F543" s="2"/>
     </row>
-    <row r="544">
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F544" s="2"/>
     </row>
-    <row r="545">
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F545" s="2"/>
     </row>
-    <row r="546">
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F546" s="2"/>
     </row>
-    <row r="547">
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F547" s="2"/>
     </row>
-    <row r="548">
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F548" s="2"/>
     </row>
-    <row r="549">
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F549" s="2"/>
     </row>
-    <row r="550">
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F550" s="2"/>
     </row>
-    <row r="551">
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F551" s="2"/>
     </row>
-    <row r="552">
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F552" s="2"/>
     </row>
-    <row r="553">
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F553" s="2"/>
     </row>
-    <row r="554">
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F554" s="2"/>
     </row>
-    <row r="555">
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F555" s="2"/>
     </row>
-    <row r="556">
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F556" s="2"/>
     </row>
-    <row r="557">
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F557" s="2"/>
     </row>
-    <row r="558">
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F558" s="2"/>
     </row>
-    <row r="559">
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F559" s="2"/>
     </row>
-    <row r="560">
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F723" s="2"/>
     </row>
-    <row r="724">
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F724" s="2"/>
     </row>
-    <row r="725">
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F725" s="2"/>
     </row>
-    <row r="726">
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F726" s="2"/>
     </row>
-    <row r="727">
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F727" s="2"/>
     </row>
-    <row r="728">
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F728" s="2"/>
     </row>
-    <row r="729">
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F729" s="2"/>
     </row>
-    <row r="730">
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F730" s="2"/>
     </row>
-    <row r="731">
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F731" s="2"/>
     </row>
-    <row r="732">
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F732" s="2"/>
     </row>
-    <row r="733">
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F733" s="2"/>
     </row>
-    <row r="734">
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F734" s="2"/>
     </row>
-    <row r="735">
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F735" s="2"/>
     </row>
-    <row r="736">
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F736" s="2"/>
     </row>
-    <row r="737">
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F737" s="2"/>
     </row>
-    <row r="738">
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F738" s="2"/>
     </row>
-    <row r="739">
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F739" s="2"/>
     </row>
-    <row r="740">
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F740" s="2"/>
     </row>
-    <row r="741">
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F741" s="2"/>
     </row>
-    <row r="742">
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F742" s="2"/>
     </row>
-    <row r="743">
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F743" s="2"/>
     </row>
-    <row r="744">
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F744" s="2"/>
     </row>
-    <row r="745">
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F745" s="2"/>
     </row>
-    <row r="746">
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F746" s="2"/>
     </row>
-    <row r="747">
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F747" s="2"/>
     </row>
-    <row r="748">
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F748" s="2"/>
     </row>
-    <row r="749">
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F749" s="2"/>
     </row>
-    <row r="750">
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F750" s="2"/>
     </row>
-    <row r="751">
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F751" s="2"/>
     </row>
-    <row r="752">
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F752" s="2"/>
     </row>
-    <row r="753">
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F753" s="2"/>
     </row>
-    <row r="754">
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F754" s="2"/>
     </row>
-    <row r="755">
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F755" s="2"/>
     </row>
-    <row r="756">
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F756" s="2"/>
     </row>
-    <row r="757">
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F757" s="2"/>
     </row>
-    <row r="758">
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F758" s="2"/>
     </row>
-    <row r="759">
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F759" s="2"/>
     </row>
-    <row r="760">
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F760" s="2"/>
     </row>
-    <row r="761">
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F761" s="2"/>
     </row>
-    <row r="762">
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F762" s="2"/>
     </row>
-    <row r="763">
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F763" s="2"/>
     </row>
-    <row r="764">
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F764" s="2"/>
     </row>
-    <row r="765">
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F765" s="2"/>
     </row>
-    <row r="766">
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F766" s="2"/>
     </row>
-    <row r="767">
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F767" s="2"/>
     </row>
-    <row r="768">
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F768" s="2"/>
     </row>
-    <row r="769">
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F769" s="2"/>
     </row>
-    <row r="770">
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F770" s="2"/>
     </row>
-    <row r="771">
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F771" s="2"/>
     </row>
-    <row r="772">
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F772" s="2"/>
     </row>
-    <row r="773">
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F773" s="2"/>
     </row>
-    <row r="774">
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F774" s="2"/>
     </row>
-    <row r="775">
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F775" s="2"/>
     </row>
-    <row r="776">
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F776" s="2"/>
     </row>
-    <row r="777">
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F777" s="2"/>
     </row>
-    <row r="778">
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F778" s="2"/>
     </row>
-    <row r="779">
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F779" s="2"/>
     </row>
-    <row r="780">
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F780" s="2"/>
     </row>
-    <row r="781">
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F781" s="2"/>
     </row>
-    <row r="782">
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F782" s="2"/>
     </row>
-    <row r="783">
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F783" s="2"/>
     </row>
-    <row r="784">
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F784" s="2"/>
     </row>
-    <row r="785">
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F785" s="2"/>
     </row>
-    <row r="786">
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F786" s="2"/>
     </row>
-    <row r="787">
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F787" s="2"/>
     </row>
-    <row r="788">
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F788" s="2"/>
     </row>
-    <row r="789">
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F789" s="2"/>
     </row>
-    <row r="790">
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F790" s="2"/>
     </row>
-    <row r="791">
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F791" s="2"/>
     </row>
-    <row r="792">
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F792" s="2"/>
     </row>
-    <row r="793">
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F793" s="2"/>
     </row>
-    <row r="794">
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F794" s="2"/>
     </row>
-    <row r="795">
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F795" s="2"/>
     </row>
-    <row r="796">
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F796" s="2"/>
     </row>
-    <row r="797">
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F797" s="2"/>
     </row>
-    <row r="798">
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F798" s="2"/>
     </row>
-    <row r="799">
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F799" s="2"/>
     </row>
-    <row r="800">
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F800" s="2"/>
     </row>
-    <row r="801">
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F801" s="2"/>
     </row>
-    <row r="802">
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F802" s="2"/>
     </row>
-    <row r="803">
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F803" s="2"/>
     </row>
-    <row r="804">
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F804" s="2"/>
     </row>
-    <row r="805">
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F805" s="2"/>
     </row>
-    <row r="806">
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F806" s="2"/>
     </row>
-    <row r="807">
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F807" s="2"/>
     </row>
-    <row r="808">
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F808" s="2"/>
     </row>
-    <row r="809">
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F809" s="2"/>
     </row>
-    <row r="810">
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F810" s="2"/>
     </row>
-    <row r="811">
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F811" s="2"/>
     </row>
-    <row r="812">
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F812" s="2"/>
     </row>
-    <row r="813">
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F813" s="2"/>
     </row>
-    <row r="814">
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F814" s="2"/>
     </row>
-    <row r="815">
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F815" s="2"/>
     </row>
-    <row r="816">
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F816" s="2"/>
     </row>
-    <row r="817">
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F817" s="2"/>
     </row>
-    <row r="818">
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F818" s="2"/>
     </row>
-    <row r="819">
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F819" s="2"/>
     </row>
-    <row r="820">
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F820" s="2"/>
     </row>
-    <row r="821">
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F821" s="2"/>
     </row>
-    <row r="822">
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F822" s="2"/>
     </row>
-    <row r="823">
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F823" s="2"/>
     </row>
-    <row r="824">
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F824" s="2"/>
     </row>
-    <row r="825">
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F825" s="2"/>
     </row>
-    <row r="826">
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F826" s="2"/>
     </row>
-    <row r="827">
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F827" s="2"/>
     </row>
-    <row r="828">
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F828" s="2"/>
     </row>
-    <row r="829">
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F829" s="2"/>
     </row>
-    <row r="830">
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F830" s="2"/>
     </row>
-    <row r="831">
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F831" s="2"/>
     </row>
-    <row r="832">
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F832" s="2"/>
     </row>
-    <row r="833">
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F833" s="2"/>
     </row>
-    <row r="834">
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F834" s="2"/>
     </row>
-    <row r="835">
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F835" s="2"/>
     </row>
-    <row r="836">
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F836" s="2"/>
     </row>
-    <row r="837">
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F837" s="2"/>
     </row>
-    <row r="838">
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F838" s="2"/>
     </row>
-    <row r="839">
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F839" s="2"/>
     </row>
-    <row r="840">
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F840" s="2"/>
     </row>
-    <row r="841">
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F841" s="2"/>
     </row>
-    <row r="842">
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F842" s="2"/>
     </row>
-    <row r="843">
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F843" s="2"/>
     </row>
-    <row r="844">
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F844" s="2"/>
     </row>
-    <row r="845">
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F845" s="2"/>
     </row>
-    <row r="846">
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F846" s="2"/>
     </row>
-    <row r="847">
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F847" s="2"/>
     </row>
-    <row r="848">
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F848" s="2"/>
     </row>
-    <row r="849">
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F849" s="2"/>
     </row>
-    <row r="850">
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F850" s="2"/>
     </row>
-    <row r="851">
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F851" s="2"/>
     </row>
-    <row r="852">
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F852" s="2"/>
     </row>
-    <row r="853">
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F853" s="2"/>
     </row>
-    <row r="854">
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F854" s="2"/>
     </row>
-    <row r="855">
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F855" s="2"/>
     </row>
-    <row r="856">
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F856" s="2"/>
     </row>
-    <row r="857">
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F857" s="2"/>
     </row>
-    <row r="858">
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F858" s="2"/>
     </row>
-    <row r="859">
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F859" s="2"/>
     </row>
-    <row r="860">
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F860" s="2"/>
     </row>
-    <row r="861">
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F861" s="2"/>
     </row>
-    <row r="862">
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F862" s="2"/>
     </row>
-    <row r="863">
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F863" s="2"/>
     </row>
-    <row r="864">
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F864" s="2"/>
     </row>
-    <row r="865">
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F865" s="2"/>
     </row>
-    <row r="866">
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F866" s="2"/>
     </row>
-    <row r="867">
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F867" s="2"/>
     </row>
-    <row r="868">
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F868" s="2"/>
     </row>
-    <row r="869">
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F869" s="2"/>
     </row>
-    <row r="870">
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F870" s="2"/>
     </row>
-    <row r="871">
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F871" s="2"/>
     </row>
-    <row r="872">
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F872" s="2"/>
     </row>
-    <row r="873">
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F873" s="2"/>
     </row>
-    <row r="874">
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F874" s="2"/>
     </row>
-    <row r="875">
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F875" s="2"/>
     </row>
-    <row r="876">
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F876" s="2"/>
     </row>
-    <row r="877">
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F877" s="2"/>
     </row>
-    <row r="878">
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F878" s="2"/>
     </row>
-    <row r="879">
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F879" s="2"/>
     </row>
-    <row r="880">
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F880" s="2"/>
     </row>
-    <row r="881">
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F881" s="2"/>
     </row>
-    <row r="882">
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F882" s="2"/>
     </row>
-    <row r="883">
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F883" s="2"/>
     </row>
-    <row r="884">
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F884" s="2"/>
     </row>
-    <row r="885">
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F885" s="2"/>
     </row>
-    <row r="886">
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F886" s="2"/>
     </row>
-    <row r="887">
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F887" s="2"/>
     </row>
-    <row r="888">
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F888" s="2"/>
     </row>
-    <row r="889">
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F889" s="2"/>
     </row>
-    <row r="890">
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F890" s="2"/>
     </row>
-    <row r="891">
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F891" s="2"/>
     </row>
-    <row r="892">
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F892" s="2"/>
     </row>
-    <row r="893">
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F893" s="2"/>
     </row>
-    <row r="894">
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F894" s="2"/>
     </row>
-    <row r="895">
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F895" s="2"/>
     </row>
-    <row r="896">
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F896" s="2"/>
     </row>
-    <row r="897">
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F897" s="2"/>
     </row>
-    <row r="898">
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F898" s="2"/>
     </row>
-    <row r="899">
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F899" s="2"/>
     </row>
-    <row r="900">
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F900" s="2"/>
     </row>
-    <row r="901">
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F901" s="2"/>
     </row>
-    <row r="902">
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F902" s="2"/>
     </row>
-    <row r="903">
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F903" s="2"/>
     </row>
-    <row r="904">
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F904" s="2"/>
     </row>
-    <row r="905">
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F905" s="2"/>
     </row>
-    <row r="906">
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F906" s="2"/>
     </row>
-    <row r="907">
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F907" s="2"/>
     </row>
-    <row r="908">
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F908" s="2"/>
     </row>
-    <row r="909">
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F909" s="2"/>
     </row>
-    <row r="910">
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F910" s="2"/>
     </row>
-    <row r="911">
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F911" s="2"/>
     </row>
-    <row r="912">
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F912" s="2"/>
     </row>
-    <row r="913">
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F913" s="2"/>
     </row>
-    <row r="914">
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F914" s="2"/>
     </row>
-    <row r="915">
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F915" s="2"/>
     </row>
-    <row r="916">
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F916" s="2"/>
     </row>
-    <row r="917">
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F917" s="2"/>
     </row>
-    <row r="918">
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F918" s="2"/>
     </row>
-    <row r="919">
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F919" s="2"/>
     </row>
-    <row r="920">
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F920" s="2"/>
     </row>
-    <row r="921">
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F921" s="2"/>
     </row>
-    <row r="922">
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F922" s="2"/>
     </row>
-    <row r="923">
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F923" s="2"/>
     </row>
-    <row r="924">
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F924" s="2"/>
     </row>
-    <row r="925">
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F925" s="2"/>
     </row>
-    <row r="926">
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F926" s="2"/>
     </row>
-    <row r="927">
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F927" s="2"/>
     </row>
-    <row r="928">
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F928" s="2"/>
     </row>
-    <row r="929">
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F929" s="2"/>
     </row>
-    <row r="930">
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F930" s="2"/>
     </row>
-    <row r="931">
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F931" s="2"/>
     </row>
-    <row r="932">
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F932" s="2"/>
     </row>
-    <row r="933">
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F933" s="2"/>
     </row>
-    <row r="934">
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F934" s="2"/>
     </row>
-    <row r="935">
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F935" s="2"/>
     </row>
-    <row r="936">
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F936" s="2"/>
     </row>
-    <row r="937">
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F937" s="2"/>
     </row>
-    <row r="938">
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F938" s="2"/>
     </row>
-    <row r="939">
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F939" s="2"/>
     </row>
-    <row r="940">
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F940" s="2"/>
     </row>
-    <row r="941">
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F941" s="2"/>
     </row>
-    <row r="942">
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F942" s="2"/>
     </row>
-    <row r="943">
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F943" s="2"/>
     </row>
-    <row r="944">
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F944" s="2"/>
     </row>
-    <row r="945">
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F945" s="2"/>
     </row>
-    <row r="946">
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F946" s="2"/>
     </row>
-    <row r="947">
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F947" s="2"/>
     </row>
-    <row r="948">
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F948" s="2"/>
     </row>
-    <row r="949">
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F949" s="2"/>
     </row>
-    <row r="950">
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F950" s="2"/>
     </row>
-    <row r="951">
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F951" s="2"/>
     </row>
-    <row r="952">
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F952" s="2"/>
     </row>
-    <row r="953">
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F953" s="2"/>
     </row>
-    <row r="954">
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F954" s="2"/>
     </row>
-    <row r="955">
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F955" s="2"/>
     </row>
-    <row r="956">
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F956" s="2"/>
     </row>
-    <row r="957">
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F957" s="2"/>
     </row>
-    <row r="958">
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F958" s="2"/>
     </row>
-    <row r="959">
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F959" s="2"/>
     </row>
-    <row r="960">
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F960" s="2"/>
     </row>
-    <row r="961">
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F961" s="2"/>
     </row>
-    <row r="962">
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F962" s="2"/>
     </row>
-    <row r="963">
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F963" s="2"/>
     </row>
-    <row r="964">
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F964" s="2"/>
     </row>
-    <row r="965">
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F965" s="2"/>
     </row>
-    <row r="966">
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F966" s="2"/>
     </row>
-    <row r="967">
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F967" s="2"/>
     </row>
-    <row r="968">
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F968" s="2"/>
     </row>
-    <row r="969">
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F969" s="2"/>
     </row>
-    <row r="970">
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F970" s="2"/>
     </row>
-    <row r="971">
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F971" s="2"/>
     </row>
-    <row r="972">
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F972" s="2"/>
     </row>
-    <row r="973">
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F973" s="2"/>
     </row>
-    <row r="974">
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F974" s="2"/>
     </row>
-    <row r="975">
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F975" s="2"/>
     </row>
-    <row r="976">
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F976" s="2"/>
     </row>
-    <row r="977">
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F977" s="2"/>
     </row>
-    <row r="978">
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F978" s="2"/>
     </row>
-    <row r="979">
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F979" s="2"/>
     </row>
-    <row r="980">
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F980" s="2"/>
     </row>
-    <row r="981">
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F981" s="2"/>
     </row>
-    <row r="982">
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F982" s="2"/>
     </row>
-    <row r="983">
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F983" s="2"/>
     </row>
-    <row r="984">
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F984" s="2"/>
     </row>
-    <row r="985">
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F985" s="2"/>
     </row>
-    <row r="986">
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F986" s="2"/>
     </row>
-    <row r="987">
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F987" s="2"/>
     </row>
-    <row r="988">
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F988" s="2"/>
     </row>
-    <row r="989">
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F989" s="2"/>
     </row>
-    <row r="990">
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F990" s="2"/>
     </row>
-    <row r="991">
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F991" s="2"/>
     </row>
-    <row r="992">
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F992" s="2"/>
     </row>
-    <row r="993">
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F993" s="2"/>
     </row>
-    <row r="994">
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F994" s="2"/>
     </row>
-    <row r="995">
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F995" s="2"/>
     </row>
-    <row r="996">
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F996" s="2"/>
     </row>
-    <row r="997">
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F997" s="2"/>
     </row>
-    <row r="998">
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F998" s="2"/>
     </row>
-    <row r="999">
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F999" s="2"/>
     </row>
-    <row r="1000">
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1000" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
-    <hyperlink r:id="rId4" ref="F5"/>
-    <hyperlink r:id="rId5" ref="F6"/>
-    <hyperlink r:id="rId6" ref="F7"/>
-    <hyperlink r:id="rId7" ref="F8"/>
-    <hyperlink r:id="rId8" ref="F9"/>
-    <hyperlink r:id="rId9" ref="F10"/>
-    <hyperlink r:id="rId10" ref="F11"/>
-    <hyperlink r:id="rId11" ref="F12"/>
-    <hyperlink r:id="rId12" ref="F13"/>
-    <hyperlink r:id="rId13" ref="F14"/>
-    <hyperlink r:id="rId14" ref="F15"/>
-    <hyperlink r:id="rId15" ref="F17"/>
-    <hyperlink r:id="rId16" ref="F18"/>
+    <hyperlink ref="F13" r:id="rId1" display="mikhailov@mail.ru"/>
+    <hyperlink ref="F14" r:id="rId2" display="sokolova@mail.ru"/>
+    <hyperlink ref="F15" r:id="rId3" display="romanov@mail.ru"/>
+    <hyperlink ref="F17" r:id="rId4" display="kovalenko@mail.ru"/>
+    <hyperlink ref="F18" r:id="rId5" display="baranov@mail.ru"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>